--- a/resultados/resultado_prueba.xlsx
+++ b/resultados/resultado_prueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,21 +537,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30U1YOGZGAW71ZX6E9LWKLA5JD8SDZ</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZD972HG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>having a great and high wall; having twelve gates, and at the gates twelve angels; and names written on them, which are the names of the twelve tribes of the children of Israel.</t>
+          <t>At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tribes</t>
+          <t>garment</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.03518308700730965</v>
+        <v>0.125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.175</v>
+        <v>0.21875</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -581,41 +581,41 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.1825</v>
+        <v>0.0556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0476</v>
+        <v>0.0039</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2182</v>
+        <v>0.0625</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.2824</v>
+        <v>0.8768</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5201</v>
+        <v>0.9708</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5182</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>easy:85.93%</t>
+          <t>easy:94.02%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>neutral:9.47%</t>
+          <t>very:2.57%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>difficult:3.2%</t>
+          <t>Easy:0.11%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>very:0.9%</t>
+          <t>neutral:0.07%</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -626,85 +626,85 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EE6533</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZD9X2H6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>so that the multitude wondered when they saw the mute speaking, injured whole, lame walking, and blind seeing--and they glorified the God of Israel.</t>
+          <t>It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>whole</t>
+          <t>divination</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0.51 - 0.75</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2497868900824576</v>
+        <v>0.625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.359375</v>
+        <v>0.638888918</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.1825</v>
+        <v>0.0556</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0476</v>
+        <v>0.0039</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2182</v>
+        <v>0.0625</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.2824</v>
+        <v>0.8768</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5201</v>
+        <v>0.9708</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5182</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>very:5.83%</t>
+          <t>difficult:90.73%</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>neutral:2.29%</t>
+          <t>easy:1.7%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Easy:0.11%</t>
+          <t>very:1.04%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>easy:0.09%</t>
+          <t>neutral:0.15%</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -715,38 +715,38 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EEG35B</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZDB2H2U</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>In that day, Yahweh with his hard and great and strong sword will punish leviathan, the fleeing serpent, and leviathan the twisted serpent; and he will kill the dragon that is in the sea.</t>
+          <t>You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dragon</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.6828580984705551</v>
+        <v>0.125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.25</v>
+        <v>0.08928568200000001</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -755,45 +755,45 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.1825</v>
+        <v>0.0556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0476</v>
+        <v>0.0039</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2182</v>
+        <v>0.0625</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.2824</v>
+        <v>0.8768</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5201</v>
+        <v>0.9708</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5182</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>difficult:69.14%</t>
+          <t>easy:80.67%</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>easy:15.66%</t>
+          <t>very:8.41%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>neutral:11.48%</t>
+          <t>difficult:0.83%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>very:3.34%</t>
+          <t>neutral:0.22%</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -804,21 +804,21 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EEG53D</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZDBWH2O</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Then arose Ishmael the son of Nethaniah, and the ten men who were with him, and struck Gedaliah the son of Ahikam the son of Shaphan with the sword, and killed him, whom the king of Babylon had made governor over the land.</t>
+          <t>Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart."</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>king</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.0621026209156138</v>
+        <v>0.125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.107142816</v>
+        <v>0.166666648</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -848,66 +848,66 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1825</v>
+        <v>0.0556</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0476</v>
+        <v>0.0039</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2182</v>
+        <v>0.0625</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.2824</v>
+        <v>0.8768</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5201</v>
+        <v>0.9708</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5182</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>easy:75.16%</t>
+          <t>easy:85.38%</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>very:22.75%</t>
+          <t>neutral:12.57%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>neutral:1.67%</t>
+          <t>difficult:1.42%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Easy:0.11%</t>
+          <t>very:0.32%</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>difficult:0.06%</t>
+          <t>Easy:0.09%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EEU53R</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZDBX2HA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yahweh will bring you, and your king whom you shall set over you, to a nation that you have not known, you nor your fathers; and there you shall serve other gods, wood and stone.</t>
+          <t>The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>wood</t>
+          <t>voices</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.06306167532861912</v>
+        <v>0.125</v>
       </c>
       <c r="H6" t="n">
-        <v>0.117647062</v>
+        <v>0.18421044</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -937,41 +937,41 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.1825</v>
+        <v>0.0556</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0476</v>
+        <v>0.0039</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2182</v>
+        <v>0.0625</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.2824</v>
+        <v>0.8768</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5201</v>
+        <v>0.9708</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5182</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>easy:74.78%</t>
+          <t>easy:79.82%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>neutral:14.52%</t>
+          <t>very:1.18%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>very:9.37%</t>
+          <t>difficult:0.34%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>difficult:0.91%</t>
+          <t>neutral:0.19%</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -982,21 +982,21 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EG6355</t>
+          <t>302OLP89DZ7TWB5YXD4UFFYHC58AC0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>They couldn't find what they might do, for all the people hung on to every word that he said.</t>
+          <t>who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>rage</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.05422733808276603</v>
+        <v>0.125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.161764642</v>
+        <v>0.214285633</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1026,489 +1026,44 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.1825</v>
+        <v>0.0556</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0476</v>
+        <v>0.0039</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2182</v>
+        <v>0.0625</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.2824</v>
+        <v>0.8768</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5201</v>
+        <v>0.9708</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5182</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>easy:78.31%</t>
+          <t>easy:68.99%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>very:13.4%</t>
+          <t>difficult:17.14%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>neutral:7.98%</t>
+          <t>neutral:11.43%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Easy:0.14%</t>
+          <t>very:1.95%</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EG6537</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>God said, "Let there be an expanse in the middle of the waters, and let it divide the waters from the waters."</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>expanse</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>difficult</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.51 - 0.75</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6152658250323791</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.274999898</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1825</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2182</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-2.2824</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.5201</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.5182</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>difficult:42.11%</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>neutral:34.15%</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>easy:20.75%</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>very:2.25%</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>30Y6N4AHYPWV0KXTZKLRUB59X9CRDT</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>and all the storage cities that Solomon had, and the cities for his chariots, and the cities for his horsemen, and that which Solomon desired to build for his pleasure in Jerusalem, and in Lebanon, and in all the land of his dominion.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Lebanon</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.06224280955963402</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1825</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.2182</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.2824</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.5201</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.5182</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>easy:75.1%</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>neutral:16.99%</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>very:4.21%</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>difficult:3.09%</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>30Y6N4AHYPWV0KXTZKLRUB59XBJRD4</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>on the south; all the land of the Canaanites, and Mearah that belongs to the Sidonians, to Aphek, to the border of the Amorites;</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Canaanites</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1241874931479697</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.410714191</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1825</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.2182</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.2824</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.5201</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.5182</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>easy:50.33%</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>difficult:31.31%</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>neutral:9.43%</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>very:8.25%</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>30Y6N4AHYPWV0KXTZKLRUB59XBKDRR</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>But beware of men: for they will deliver you up to councils, and in their synagogues they will scourge you.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>synagogues</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>difficult</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.51 - 0.75</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.671888443533696</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.51470574</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>difficult</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1825</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.2182</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.2824</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.5201</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.5182</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>difficult:64.76%</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>neutral:19.02%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>easy:14.12%</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>very:1.39%</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>30Z7M1Q8UYKRK8FLG1OPDT2YMENA8U</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Now accept one who is weak in faith, but not for disputes over opinions.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>disputes</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.26 - 0.5</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.283333343</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0.1825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.2182</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.2824</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.5201</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.5182</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>neutral:34.45%</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>easy:33.14%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>difficult:31.34%</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>very:0.45%</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/resultados/resultado_prueba.xlsx
+++ b/resultados/resultado_prueba.xlsx
@@ -537,21 +537,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30U1YOGZGAW71ZX6E9LWKLA5JD8SDZ</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZD972HG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>having a great and high wall; having twelve gates, and at the gates twelve angels; and names written on them, which are the names of the twelve tribes of the children of Israel.</t>
+          <t>At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tribes</t>
+          <t>garment</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.03518308700730965</v>
+        <v>0.2499896965645608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.175</v>
+        <v>0.21875</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -581,41 +581,41 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>easy:85.93%</t>
+          <t>neutral:0.74%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>neutral:9.47%</t>
+          <t>Easy:0.01%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>difficult:3.2%</t>
+          <t>easy:0.0%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>very:0.9%</t>
+          <t>:0.0%</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -626,42 +626,42 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EE6533</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZD9X2H6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>so that the multitude wondered when they saw the mute speaking, injured whole, lame walking, and blind seeing--and they glorified the God of Israel.</t>
+          <t>It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>whole</t>
+          <t>divination</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.01 - 0.25</t>
+          <t>0.26 - 0.5</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2497868900824576</v>
+        <v>0.375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.359375</v>
+        <v>0.638888918</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -670,41 +670,41 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>very:5.83%</t>
+          <t>neutral:84.37%</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>neutral:2.29%</t>
+          <t>difficult:10.64%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Easy:0.11%</t>
+          <t>easy:4.89%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>easy:0.09%</t>
+          <t>Neutral:0.07%</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -715,38 +715,38 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EEG35B</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZDB2H2U</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>In that day, Yahweh with his hard and great and strong sword will punish leviathan, the fleeing serpent, and leviathan the twisted serpent; and he will kill the dragon that is in the sea.</t>
+          <t>You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dragon</t>
+          <t>gifts</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.6828580984705551</v>
+        <v>0.2499889281109571</v>
       </c>
       <c r="H4" t="n">
-        <v>0.25</v>
+        <v>0.08928568200000001</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -755,45 +755,45 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>difficult:69.14%</t>
+          <t>neutral:0.93%</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>easy:15.66%</t>
+          <t>Easy:0.01%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>neutral:11.48%</t>
+          <t>very:0.01%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>very:3.34%</t>
+          <t>easy:0.0%</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -804,21 +804,21 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EEG53D</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZDBWH2O</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Then arose Ishmael the son of Nethaniah, and the ten men who were with him, and struck Gedaliah the son of Ahikam the son of Shaphan with the sword, and killed him, whom the king of Babylon had made governor over the land.</t>
+          <t>Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart."</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>king</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.0621026209156138</v>
+        <v>0.2499878463276225</v>
       </c>
       <c r="H5" t="n">
-        <v>0.107142816</v>
+        <v>0.166666648</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -848,66 +848,66 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>easy:75.16%</t>
+          <t>neutral:14.04%</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>very:22.75%</t>
+          <t>Easy:0.02%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>neutral:1.67%</t>
+          <t>Neutral:0.01%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Easy:0.11%</t>
+          <t>easy:0.0%</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>difficult:0.06%</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EEU53R</t>
+          <t>301KG0KX9CLV8GLA6QPGKOCZDBX2HA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yahweh will bring you, and your king whom you shall set over you, to a nation that you have not known, you nor your fathers; and there you shall serve other gods, wood and stone.</t>
+          <t>The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>wood</t>
+          <t>voices</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.06306167532861912</v>
+        <v>0.2499884037545524</v>
       </c>
       <c r="H6" t="n">
-        <v>0.117647062</v>
+        <v>0.18421044</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -937,41 +937,41 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>easy:74.78%</t>
+          <t>neutral:1.48%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>neutral:14.52%</t>
+          <t>Easy:0.02%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>very:9.37%</t>
+          <t>easy:0.0%</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>difficult:0.91%</t>
+          <t>Neutral:0.0%</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -982,21 +982,21 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EG6355</t>
+          <t>302OLP89DZ7TWB5YXD4UFFYHC58AC0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>They couldn't find what they might do, for all the people hung on to every word that he said.</t>
+          <t>who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>rage</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.05422733808276603</v>
+        <v>0.2499853649494029</v>
       </c>
       <c r="H7" t="n">
-        <v>0.161764642</v>
+        <v>0.214285633</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1026,41 +1026,41 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>easy:78.31%</t>
+          <t>neutral:2.84%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>very:13.4%</t>
+          <t>Easy:0.02%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>neutral:7.98%</t>
+          <t>Neutral:0.01%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Easy:0.14%</t>
+          <t>easy:0.01%</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1071,38 +1071,38 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30UZJB2POHC8D5XY9O2CE1E1EG6537</t>
+          <t>302OLP89DZ7TWB5YXD4UFFYHC5KCAE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>God said, "Let there be an expanse in the middle of the waters, and let it divide the waters from the waters."</t>
+          <t>'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>expanse</t>
+          <t>Sabbaths</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.51 - 0.75</t>
+          <t>0.01 - 0.25</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.6152658250323791</v>
+        <v>0.2499822299869348</v>
       </c>
       <c r="H8" t="n">
-        <v>0.274999898</v>
+        <v>0.34375</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1115,41 +1115,41 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>difficult:42.11%</t>
+          <t>neutral:1.09%</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>neutral:34.15%</t>
+          <t>Easy:0.03%</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>easy:20.75%</t>
+          <t>easy:0.01%</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>very:2.25%</t>
+          <t>Neutral:0.01%</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1160,21 +1160,21 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>30Y6N4AHYPWV0KXTZKLRUB59X9CRDT</t>
+          <t>302OLP89DZ7TWB5YXD4UFFYHC7KACG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>and all the storage cities that Solomon had, and the cities for his chariots, and the cities for his horsemen, and that which Solomon desired to build for his pleasure in Jerusalem, and in Lebanon, and in all the land of his dominion.</t>
+          <t>Neither have we inheritance in the son of Jesse!</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Jesse</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.06224280955963402</v>
+        <v>0.009698101353405764</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3</v>
+        <v>0.323529285</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1204,66 +1204,66 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>easy:75.1%</t>
+          <t>easy:96.12%</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>neutral:16.99%</t>
+          <t>neutral:3.76%</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>very:4.21%</t>
+          <t>very:0.08%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>difficult:3.09%</t>
+          <t>Easy:0.02%</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Neutral:0.01%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30Y6N4AHYPWV0KXTZKLRUB59XBJRD4</t>
+          <t>302OLP89DZ7TWB5YXD4UFFYHC7PCAN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>on the south; all the land of the Canaanites, and Mearah that belongs to the Sidonians, to Aphek, to the border of the Amorites;</t>
+          <t>Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Canaanites</t>
+          <t>animals</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1277,57 +1277,57 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.1241874931479697</v>
+        <v>0.2499928275566013</v>
       </c>
       <c r="H10" t="n">
-        <v>0.410714191</v>
+        <v>0.222222222</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>easy</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>easy:50.33%</t>
+          <t>neutral:0.49%</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>difficult:31.31%</t>
+          <t>very:0.03%</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>neutral:9.43%</t>
+          <t>Easy:0.01%</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>very:8.25%</t>
+          <t>easy:0.0%</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1338,85 +1338,85 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30Y6N4AHYPWV0KXTZKLRUB59XBKDRR</t>
+          <t>302U8RURJZ1WF35NXY44RD66WJ8NVH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>But beware of men: for they will deliver you up to councils, and in their synagogues they will scourge you.</t>
+          <t>Don't be desirous of his dainties, since they are deceitful food.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>synagogues</t>
+          <t>dainties</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.26 - 0.5</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.638888918</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>difficult</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.51 - 0.75</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.671888443533696</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.51470574</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>difficult</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>difficult:64.76%</t>
+          <t>neutral:81.26%</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>neutral:19.02%</t>
+          <t>easy:17.86%</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>easy:14.12%</t>
+          <t>difficult:0.81%</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>very:1.39%</t>
+          <t>Neutral:0.06%</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1427,85 +1427,85 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30Z7M1Q8UYKRK8FLG1OPDT2YMENA8U</t>
+          <t>302U8RURJZ1WF35NXY44RD66WJ8VNP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Now accept one who is weak in faith, but not for disputes over opinions.</t>
+          <t>The floods have lifted up, Yahweh, the floods have lifted up their voice.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>disputes</t>
+          <t>voice</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.01 - 0.25</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.249989758317862</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.266666692</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.26 - 0.5</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.283333343</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.1825</v>
+        <v>0.1233</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0476</v>
+        <v>0.0261</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2182</v>
+        <v>0.1615</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.2824</v>
+        <v>0.1274</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5201</v>
+        <v>0.4622</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5182</v>
+        <v>0.3333</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>neutral:34.45%</t>
+          <t>neutral:0.75%</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>easy:33.14%</t>
+          <t>very:0.22%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>difficult:31.34%</t>
+          <t>Easy:0.02%</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>very:0.45%</t>
+          <t>easy:0.0%</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">

--- a/resultados/resultado_prueba.xlsx
+++ b/resultados/resultado_prueba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2499896965645608</v>
+        <v>0.2499892584502316</v>
       </c>
       <c r="H2" t="n">
         <v>0.21875</v>
@@ -581,26 +581,26 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.1233</v>
+        <v>0.121</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0261</v>
+        <v>0.0215</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1615</v>
+        <v>0.1468</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1274</v>
+        <v>0.4297</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4622</v>
+        <v>0.9759</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3333</v>
+        <v>0.4</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>neutral:0.74%</t>
+          <t>neutral:0.6%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -670,46 +670,46 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.1233</v>
+        <v>0.121</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0261</v>
+        <v>0.0215</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1615</v>
+        <v>0.1468</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1274</v>
+        <v>0.4297</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4622</v>
+        <v>0.9759</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3333</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>neutral:84.37%</t>
+          <t>neutral:81.29%</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>difficult:10.64%</t>
+          <t>difficult:13.59%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>easy:4.89%</t>
+          <t>easy:5.01%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Neutral:0.07%</t>
+          <t>Neutral:0.08%</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>hard:0.01%</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.2499889281109571</v>
+        <v>0.2499895583524907</v>
       </c>
       <c r="H4" t="n">
         <v>0.08928568200000001</v>
@@ -759,26 +759,26 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.1233</v>
+        <v>0.121</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0261</v>
+        <v>0.0215</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1615</v>
+        <v>0.1468</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1274</v>
+        <v>0.4297</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4622</v>
+        <v>0.9759</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3333</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>neutral:0.93%</t>
+          <t>neutral:0.97%</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.2499878463276225</v>
+        <v>0.2499882700737259</v>
       </c>
       <c r="H5" t="n">
         <v>0.166666648</v>
@@ -848,26 +848,26 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1233</v>
+        <v>0.121</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0261</v>
+        <v>0.0215</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1615</v>
+        <v>0.1468</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1274</v>
+        <v>0.4297</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4622</v>
+        <v>0.9759</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3333</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>neutral:14.04%</t>
+          <t>neutral:16.5%</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.2499884037545524</v>
+        <v>0.2499887062736937</v>
       </c>
       <c r="H6" t="n">
         <v>0.18421044</v>
@@ -937,26 +937,26 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.1233</v>
+        <v>0.121</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0261</v>
+        <v>0.0215</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1615</v>
+        <v>0.1468</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1274</v>
+        <v>0.4297</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4622</v>
+        <v>0.9759</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3333</v>
+        <v>0.4</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>neutral:1.48%</t>
+          <t>neutral:2.73%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -966,549 +966,15 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>Neutral:0.0%</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>easy:0.0%</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Neutral:0.0%</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>302OLP89DZ7TWB5YXD4UFFYHC58AC0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>rage</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2499853649494029</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.214285633</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1233</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.1274</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>neutral:2.84%</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Easy:0.02%</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Neutral:0.01%</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>easy:0.01%</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>302OLP89DZ7TWB5YXD4UFFYHC5KCAE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sabbaths</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0.2499822299869348</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1233</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1274</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>neutral:1.09%</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Easy:0.03%</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>easy:0.01%</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Neutral:0.01%</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>302OLP89DZ7TWB5YXD4UFFYHC7KACG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Neither have we inheritance in the son of Jesse!</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Jesse</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.009698101353405764</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.323529285</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1233</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.1274</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>easy:96.12%</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>neutral:3.76%</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>very:0.08%</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Easy:0.02%</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Neutral:0.01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>302OLP89DZ7TWB5YXD4UFFYHC7PCAN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>animals</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.2499928275566013</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.222222222</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1233</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.1274</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>neutral:0.49%</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>very:0.03%</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Easy:0.01%</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>easy:0.0%</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>302U8RURJZ1WF35NXY44RD66WJ8NVH</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Don't be desirous of his dainties, since they are deceitful food.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>dainties</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.26 - 0.5</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.638888918</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>difficult</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1233</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.1274</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>neutral:81.26%</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>easy:17.86%</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>difficult:0.81%</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Neutral:0.06%</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>302U8RURJZ1WF35NXY44RD66WJ8VNP</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>The floods have lifted up, Yahweh, the floods have lifted up their voice.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>voice</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>easy</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.01 - 0.25</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.249989758317862</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.266666692</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0.1233</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.1274</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.4622</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>neutral:0.75%</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>very:0.22%</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Easy:0.02%</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>easy:0.0%</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
